--- a/data/trans_orig/Q5410A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Dificultad-trans_orig.xlsx
@@ -762,19 +762,19 @@
         <v>1992</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4589</v>
+        <v>4563</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1756643650774941</v>
+        <v>0.1756643650774942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04864868404750081</v>
+        <v>0.05545143465924568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4046196366530089</v>
+        <v>0.4022811496267606</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>2602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>956</v>
+        <v>866</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5644</v>
+        <v>5290</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2062898117217837</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07581957371432534</v>
+        <v>0.06868702774197133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.447381803107698</v>
+        <v>0.4193488700108775</v>
       </c>
     </row>
     <row r="5">
@@ -833,19 +833,19 @@
         <v>2425</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>710</v>
+        <v>651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5854</v>
+        <v>5715</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2138477510194132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06260126911402111</v>
+        <v>0.05742485518576881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5160953060206923</v>
+        <v>0.5038476196191572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -854,19 +854,19 @@
         <v>3088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>795</v>
+        <v>1014</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6566</v>
+        <v>6345</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2448095550559671</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06303044058529114</v>
+        <v>0.08034177793079136</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5204653427135165</v>
+        <v>0.5029721381202853</v>
       </c>
     </row>
     <row r="6">
@@ -943,19 +943,19 @@
         <v>3334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1127</v>
+        <v>1353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6327</v>
+        <v>6685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2939698626189982</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09937827696184169</v>
+        <v>0.1192545892695169</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5578416444698914</v>
+        <v>0.5893855141658407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -964,19 +964,19 @@
         <v>3334</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1217</v>
+        <v>1105</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6269</v>
+        <v>6343</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2643135891709845</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09645701385419383</v>
+        <v>0.08763137147534507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4969865073749614</v>
+        <v>0.5028456134420031</v>
       </c>
     </row>
     <row r="8">
@@ -1006,19 +1006,19 @@
         <v>3590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1553</v>
+        <v>1453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6396</v>
+        <v>6689</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3165180212840945</v>
+        <v>0.3165180212840946</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1369579297111418</v>
+        <v>0.1281099451643265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5639454331335322</v>
+        <v>0.5897453754697285</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1027,19 +1027,19 @@
         <v>3590</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1275</v>
+        <v>1640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6559</v>
+        <v>6973</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2845870440512647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1010535083531016</v>
+        <v>0.1300234192078706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5199507216105907</v>
+        <v>0.5527570334983205</v>
       </c>
     </row>
     <row r="9">
@@ -1131,19 +1131,19 @@
         <v>1161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2996</v>
+        <v>2957</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2212742101747364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05633297663445178</v>
+        <v>0.05659413964581514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5707303504923793</v>
+        <v>0.5633813223236094</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1152,19 +1152,19 @@
         <v>4696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2197</v>
+        <v>2250</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7954</v>
+        <v>7776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3127500036866566</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1463436954092669</v>
+        <v>0.149835452466568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.529687245438089</v>
+        <v>0.5178599824290224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1173,19 +1173,19 @@
         <v>5858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3193</v>
+        <v>3198</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9511</v>
+        <v>9523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2890557790397367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1575343509270745</v>
+        <v>0.157810175414542</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4692839702558634</v>
+        <v>0.4699189261204684</v>
       </c>
     </row>
     <row r="11">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3185</v>
+        <v>3317</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1752660138051789</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6067507483839147</v>
+        <v>0.6318705881564358</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1223,19 +1223,19 @@
         <v>2534</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>675</v>
+        <v>756</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5430</v>
+        <v>5833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1687418080110439</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04494412907136226</v>
+        <v>0.05037916667025078</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3616121551650212</v>
+        <v>0.3884490879947749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1244,19 +1244,19 @@
         <v>3454</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6924</v>
+        <v>6890</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.170431719536204</v>
+        <v>0.1704317195362041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06029831948237865</v>
+        <v>0.06045645143265087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3416592426416822</v>
+        <v>0.3400007626557398</v>
       </c>
     </row>
     <row r="12">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3167</v>
+        <v>2929</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03940893387285183</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2109081043012416</v>
+        <v>0.1950451393036958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2949</v>
+        <v>2532</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0292011609043967</v>
+        <v>0.02920116090439671</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1455206814037613</v>
+        <v>0.1249549045636907</v>
       </c>
     </row>
     <row r="13">
@@ -1336,19 +1336,19 @@
         <v>2051</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3975</v>
+        <v>3922</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3907751794725171</v>
+        <v>0.390775179472517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1223145474826159</v>
+        <v>0.1186264706842279</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7572572683654234</v>
+        <v>0.7471055671577136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1357,19 +1357,19 @@
         <v>3832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1702</v>
+        <v>1678</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7141</v>
+        <v>7001</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2551945023527752</v>
+        <v>0.2551945023527751</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1133137157044771</v>
+        <v>0.1117329396394195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4755359791856503</v>
+        <v>0.4662402343885897</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1381,16 +1381,16 @@
         <v>2836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9478</v>
+        <v>9299</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2903128533189032</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1399163343385285</v>
+        <v>0.1399347547683356</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.467677865198573</v>
+        <v>0.458868096351824</v>
       </c>
     </row>
     <row r="14">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3039</v>
+        <v>2946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2126845965475677</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5789631085126922</v>
+        <v>0.5613283007736635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1428,19 +1428,19 @@
         <v>3362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1403</v>
+        <v>1285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6490</v>
+        <v>6863</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2239047520766727</v>
+        <v>0.2239047520766726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09343193126330293</v>
+        <v>0.08554882377113199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.432217264709956</v>
+        <v>0.4570162206365433</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1449,19 +1449,19 @@
         <v>4479</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1885</v>
+        <v>1983</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7598</v>
+        <v>7683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2209984872007593</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09302395902039648</v>
+        <v>0.0978437218570635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3749101046017655</v>
+        <v>0.3790960454665342</v>
       </c>
     </row>
     <row r="15">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2469</v>
+        <v>2382</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0844234078672285</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4187427353512695</v>
+        <v>0.4038946954901696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1574,19 +1574,19 @@
         <v>1702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4176</v>
+        <v>3901</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1850235667178321</v>
+        <v>0.185023566717832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03956567459013094</v>
+        <v>0.03786868048527717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4538235801321663</v>
+        <v>0.4239486600139452</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1595,19 +1595,19 @@
         <v>2200</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5010</v>
+        <v>5105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1457312126175924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04330172331296632</v>
+        <v>0.04249632766150341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3318457172478309</v>
+        <v>0.3381165676051776</v>
       </c>
     </row>
     <row r="17">
@@ -1624,19 +1624,19 @@
         <v>4249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2070</v>
+        <v>2031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5456</v>
+        <v>5440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7205325545593918</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3509972551422592</v>
+        <v>0.3444688515176332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9252408279594498</v>
+        <v>0.9224450867650277</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1645,19 +1645,19 @@
         <v>2205</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4480</v>
+        <v>4748</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2396730364172086</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07694244527140801</v>
+        <v>0.07794311413590996</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4868834133984833</v>
+        <v>0.5160595546968314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1666,19 +1666,19 @@
         <v>6454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3675</v>
+        <v>3608</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9651</v>
+        <v>9776</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4274868796077745</v>
+        <v>0.4274868796077744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2434415690840382</v>
+        <v>0.238965244364638</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6392242436754145</v>
+        <v>0.6475079766494608</v>
       </c>
     </row>
     <row r="18">
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4533</v>
+        <v>4912</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1759188864146814</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4926971531915864</v>
+        <v>0.5338231448660954</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5591</v>
+        <v>5629</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1072085855871193</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3703453987693413</v>
+        <v>0.3728129833843812</v>
       </c>
     </row>
     <row r="19">
@@ -1771,19 +1771,19 @@
         <v>2686</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5304</v>
+        <v>5287</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2919425692240875</v>
+        <v>0.2919425692240873</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07782841176938761</v>
+        <v>0.07645591602705881</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5764852692638013</v>
+        <v>0.5745760085964338</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1792,19 +1792,19 @@
         <v>2686</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>705</v>
+        <v>651</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5677</v>
+        <v>5591</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1779158028854601</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04669053654283987</v>
+        <v>0.04313154173575506</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3760262392404133</v>
+        <v>0.3703137863194615</v>
       </c>
     </row>
     <row r="20">
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3201</v>
+        <v>3159</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1950440375733798</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5427979990839829</v>
+        <v>0.5356442259827014</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1845,16 +1845,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3368</v>
+        <v>3058</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1074419412261906</v>
+        <v>0.1074419412261905</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3660666771820139</v>
+        <v>0.3323277945195725</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1863,19 +1863,19 @@
         <v>2139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4823</v>
+        <v>4907</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1416575193020538</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03652971766845158</v>
+        <v>0.03574225282895521</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3194415940339046</v>
+        <v>0.3249882934073332</v>
       </c>
     </row>
     <row r="21">
@@ -2017,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2080</v>
+        <v>2116</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2258638214334479</v>
+        <v>0.225863821433448</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7031025406738195</v>
+        <v>0.7152025471630621</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2035,19 +2035,19 @@
         <v>6321</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3412</v>
+        <v>3008</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8711</v>
+        <v>8797</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5983916938362298</v>
+        <v>0.5983916938362301</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3229391573384407</v>
+        <v>0.28478430873143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8245805391843665</v>
+        <v>0.8327750357568466</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2056,19 +2056,19 @@
         <v>6989</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3877</v>
+        <v>3916</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9923</v>
+        <v>9544</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5168907448305444</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2866915748245075</v>
+        <v>0.289610485300253</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7338525338111511</v>
+        <v>0.7058103578673794</v>
       </c>
     </row>
     <row r="24">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2209</v>
+        <v>1881</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1664966925639977</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7467470184601295</v>
+        <v>0.6357949576313184</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2153,19 +2153,19 @@
         <v>2572</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6690</v>
+        <v>6413</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2434735248804161</v>
+        <v>0.2434735248804162</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04732400753713691</v>
+        <v>0.04247504439098931</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6332578381974295</v>
+        <v>0.6070957973053352</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2174,19 +2174,19 @@
         <v>3065</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>995</v>
+        <v>919</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8216</v>
+        <v>7548</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2266326779264024</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07360198184948903</v>
+        <v>0.06793440618847807</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6076154888789188</v>
+        <v>0.5581949090392552</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2209,7 @@
         <v>2958</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6076394860025542</v>
+        <v>0.6076394860025544</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0.1541981264977089</v>
@@ -2224,19 +2224,19 @@
         <v>1671</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4270</v>
+        <v>4261</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1581347812833539</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03677823400802267</v>
+        <v>0.03420692757309672</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4042186020349334</v>
+        <v>0.4033299384559526</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2245,19 +2245,19 @@
         <v>3468</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1289</v>
+        <v>1240</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6171</v>
+        <v>6028</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2564765772430532</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09532601834075553</v>
+        <v>0.09171654072574693</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4563801645030227</v>
+        <v>0.4457924970934422</v>
       </c>
     </row>
     <row r="27">
@@ -2349,19 +2349,19 @@
         <v>2269</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>853</v>
+        <v>790</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5063</v>
+        <v>5021</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1475728464921347</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05549919577643412</v>
+        <v>0.05135073173355617</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3292897631433143</v>
+        <v>0.3265185631179519</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2370,19 +2370,19 @@
         <v>8391</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4687</v>
+        <v>5027</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12697</v>
+        <v>13171</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1819288505352898</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1016225353674653</v>
+        <v>0.1089822662655967</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2752757750629138</v>
+        <v>0.2855698523683169</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -2391,19 +2391,19 @@
         <v>10660</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6758</v>
+        <v>6701</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16306</v>
+        <v>15639</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1733387531152019</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1098916733471183</v>
+        <v>0.1089652710454535</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2651332322005721</v>
+        <v>0.2542981126732802</v>
       </c>
     </row>
     <row r="29">
@@ -2420,19 +2420,19 @@
         <v>6500</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3432</v>
+        <v>3573</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9678</v>
+        <v>9740</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4226921132398053</v>
+        <v>0.4226921132398054</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2231964019109675</v>
+        <v>0.2323744169386474</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6294051647483013</v>
+        <v>0.6333981952944047</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -2441,19 +2441,19 @@
         <v>13486</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8951</v>
+        <v>8738</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18541</v>
+        <v>19067</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2923892415709753</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.194069212249282</v>
+        <v>0.1894417038981615</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4020010424725034</v>
+        <v>0.4134017808144659</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>36</v>
@@ -2462,19 +2462,19 @@
         <v>19986</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14902</v>
+        <v>14528</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26103</v>
+        <v>25811</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3249691178670218</v>
+        <v>0.3249691178670217</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2423128256559185</v>
+        <v>0.2362298604828479</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4244435301038622</v>
+        <v>0.4196884104444953</v>
       </c>
     </row>
     <row r="30">
@@ -2504,19 +2504,19 @@
         <v>2210</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7781</v>
+        <v>6280</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04792303650990071</v>
+        <v>0.04792303650990072</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00897019751557231</v>
+        <v>0.008732158918538577</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1687079064975519</v>
+        <v>0.1361650048748735</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2525,19 +2525,19 @@
         <v>2210</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6645</v>
+        <v>6815</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03594074800599378</v>
+        <v>0.03594074800599377</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006646037683726519</v>
+        <v>0.006840353041217606</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1080506556618153</v>
+        <v>0.1108205734553993</v>
       </c>
     </row>
     <row r="31">
@@ -2554,19 +2554,19 @@
         <v>2544</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5681</v>
+        <v>5549</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.16543132636155</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04336340721255699</v>
+        <v>0.04801209675282248</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3694391749249263</v>
+        <v>0.3608427237056753</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -2575,19 +2575,19 @@
         <v>12424</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8058</v>
+        <v>8328</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18093</v>
+        <v>18749</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2693757155083365</v>
+        <v>0.2693757155083366</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1747038141070423</v>
+        <v>0.1805660994466026</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3922844773182975</v>
+        <v>0.4065043249369397</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2596,19 +2596,19 @@
         <v>14968</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10021</v>
+        <v>9719</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>21761</v>
+        <v>20956</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.243386301025766</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1629372622590559</v>
+        <v>0.1580310430515003</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3538416312662834</v>
+        <v>0.3407533099577827</v>
       </c>
     </row>
     <row r="32">
@@ -2625,19 +2625,19 @@
         <v>4064</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1726</v>
+        <v>1832</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7238</v>
+        <v>7461</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.26430371390651</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.112267593399009</v>
+        <v>0.119164766064563</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4707164265228482</v>
+        <v>0.4852244890218781</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -2646,19 +2646,19 @@
         <v>9611</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5865</v>
+        <v>5796</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14017</v>
+        <v>14111</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2083831558754976</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1271582981136645</v>
+        <v>0.1256563232324196</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3038965478759267</v>
+        <v>0.3059346580354174</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -2667,19 +2667,19 @@
         <v>13675</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9125</v>
+        <v>9480</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19415</v>
+        <v>19313</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2223650799860166</v>
+        <v>0.2223650799860165</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.148372516272794</v>
+        <v>0.1541480422426565</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3156956822415828</v>
+        <v>0.3140370848708294</v>
       </c>
     </row>
     <row r="33">
